--- a/medicine/Enfance/Matthieu_Simard/Matthieu_Simard.xlsx
+++ b/medicine/Enfance/Matthieu_Simard/Matthieu_Simard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthieu Simard est un chroniqueur et écrivain québécois né en 1974[1],[2]. Il habite à Montréal[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthieu Simard est un chroniqueur et écrivain québécois né en 1974,. Il habite à Montréal.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthieu Simard possède un baccalauréat en droit à l'Université de Montréal ainsi qu'un certificat en journalisme à Québec[1]. Il est chroniqueur au magazine Urbania et écrivain[1],[4].
-Il a écrit une série pour la jeunesse, Pavel, et a remporté le prix littéraire France-Québec pour son ouvrage Les écrivements en 2019[5].
-Il a écrit son premier roman, Échecs amoureux et autres niaiseries, à la suite d'une tentative de suicide[6]. Il s'est d'abord ouvert à ce sujet dans une publication sur sa page Facebook, en espérant venir en aide ne serait-ce qu'à une seule personne[7]. Par la suite, il revient également sur cette période difficile de sa vie dans un témoignage pour le magazine Urbania[8].
-Son œuvre est collée à la réalité et est très proche du quotidien[9]. D'ailleurs, le narrateur de son roman Ça sent la coupe possède le même prénom que l'auteur, brouillant ainsi les frontières entre la réalité et la fiction[9].
-Sa nouvelle série pour la jeunesse, Les Prank, aborde les conflits entre un frère et une sœur qui deviennent viraux après que leur père publie une vidéo en pleine chicane[10]. Grâce à ces personnages, l'auteur souhaitait aborder les thèmes de la célébrité et des réseaux sociaux qui sont populaires chez les jeunes[10]. Même si le ton est humoristique, voire cynique et ironique, les sujets abordés dans la série sont sérieux[10],[11]. Son oeuvre La tendresse attendra aborde les relations amoureuses au XXIe siècle, thème qu'il poursuit dans Les écrivements, roman dans lequel une vieille dame cherche à se souvenir et à retrouver un amour de longue date[12],[6],[13].
-L'écrivain ne fait pas de distinction entre l'écriture générale et celle pour adolescents ; peu importe pour qui il écrit, son objectif est de faire réfléchir[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthieu Simard possède un baccalauréat en droit à l'Université de Montréal ainsi qu'un certificat en journalisme à Québec. Il est chroniqueur au magazine Urbania et écrivain,.
+Il a écrit une série pour la jeunesse, Pavel, et a remporté le prix littéraire France-Québec pour son ouvrage Les écrivements en 2019.
+Il a écrit son premier roman, Échecs amoureux et autres niaiseries, à la suite d'une tentative de suicide. Il s'est d'abord ouvert à ce sujet dans une publication sur sa page Facebook, en espérant venir en aide ne serait-ce qu'à une seule personne. Par la suite, il revient également sur cette période difficile de sa vie dans un témoignage pour le magazine Urbania.
+Son œuvre est collée à la réalité et est très proche du quotidien. D'ailleurs, le narrateur de son roman Ça sent la coupe possède le même prénom que l'auteur, brouillant ainsi les frontières entre la réalité et la fiction.
+Sa nouvelle série pour la jeunesse, Les Prank, aborde les conflits entre un frère et une sœur qui deviennent viraux après que leur père publie une vidéo en pleine chicane. Grâce à ces personnages, l'auteur souhaitait aborder les thèmes de la célébrité et des réseaux sociaux qui sont populaires chez les jeunes. Même si le ton est humoristique, voire cynique et ironique, les sujets abordés dans la série sont sérieux,. Son oeuvre La tendresse attendra aborde les relations amoureuses au XXIe siècle, thème qu'il poursuit dans Les écrivements, roman dans lequel une vieille dame cherche à se souvenir et à retrouver un amour de longue date.
+L'écrivain ne fait pas de distinction entre l'écriture générale et celle pour adolescents ; peu importe pour qui il écrit, son objectif est de faire réfléchir.
 </t>
         </is>
       </c>
@@ -549,21 +563,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Échecs amoureux et autres niaiseries, Montréal, Stanké, 2004, 201 p.  (ISBN 2-7604-0963-5).
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Échecs amoureux et autres niaiseries, Montréal, Stanké, 2004, 201 p.  (ISBN 2-7604-0963-5).
 Ça sent la coupe, Montréal, Stanké, 2004, 270 p.  (ISBN 2-7604-0975-9).
 Douce moitié, Montréal, Stanké, 2005, 211 p.  (ISBN 2-7604-0999-6).
 Llouis qui tombe tout seul, Montréal, Stanké, 2006, 206 p.  (ISBN 9782760410312 et 2760410315).
 La tendresse attendra, Montréal, Stanké, coll. « 10 sur 10 », 2011, 211 p.  (ISBN 9782897220075).
 Ici, ailleurs, Québec, Alto, coll. « CODA », 2017, 133 p.  (ISBN 9782896945306).
 Les écrivements, Québec, Alto, coll. « CODA », 2018, 243 p.  (ISBN 9782896944576).
-Une fille pas trop poussérieuse, Montréal, Stanké, 2019, 189 p.  (ISBN 9782760411531 et 2760411532).
-Littérature jeunesse
-Pavel, Montréal, La Courte Échelle, 2008-2009, 539 p.
+Une fille pas trop poussérieuse, Montréal, Stanké, 2019, 189 p.  (ISBN 9782760411531 et 2760411532).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Matthieu_Simard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matthieu_Simard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavel, Montréal, La Courte Échelle, 2008-2009, 539 p.
 Pavel l’intégrale, La Courte Échelle, 2014, 544 p.  (ISBN 9782896958504).
 Les Prank : 1er round, Montréal, Éditions Les Malins, 2021  (ISBN 9782898102769).
-Ouvrages collectifs
-Mille mots d'amour, tome 3 (collectif)[14], Montréal, Éditions Les Impatients, 2008  (ISBN 9782980782862).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matthieu_Simard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matthieu_Simard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mille mots d'amour, tome 3 (collectif), Montréal, Éditions Les Impatients, 2008  (ISBN 9782980782862).
 Cherchez la femme (collectif), Montréal, Québec Amérique, 2010.
 Amour &amp; libertinage (collectif), Montréal, Les 400 coups, 2011.
 Des nouvelles du père (collectif), Montréal, Québec Amérique, 2014.
@@ -571,66 +659,70 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Matthieu_Simard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Matthieu_Simard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, Matthieu Simard écrit le scénario de Ça sent la coupe, film qui est adapté de son populaire roman du même titre. Le film est réalisé par Patrice Sauvé[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, Matthieu Simard écrit le scénario de Ça sent la coupe, film qui est adapté de son populaire roman du même titre. Le film est réalisé par Patrice Sauvé.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Matthieu_Simard</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Matthieu_Simard</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2006 : finaliste au Grand Prix littéraire Archambault pour Llouis qui tombe tout seul[3]
-2009 : finaliste au Prix littéraire du Gouverneur général, catégorie littérature jeunesse pour Pavel, épisode 1 – Plus vivant que toutes les pornstars réunies[15]
-2019 : lauréat du Prix littéraire France-Québec pour Les écrivements[16]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2006 : finaliste au Grand Prix littéraire Archambault pour Llouis qui tombe tout seul
+2009 : finaliste au Prix littéraire du Gouverneur général, catégorie littérature jeunesse pour Pavel, épisode 1 – Plus vivant que toutes les pornstars réunies
+2019 : lauréat du Prix littéraire France-Québec pour Les écrivements</t>
         </is>
       </c>
     </row>
